--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1133853.553509628</v>
+        <v>1131152.903886321</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673438</v>
       </c>
     </row>
     <row r="9">
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>161.5206846150008</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>25.67913628361561</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,25 +738,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>186.1484605173137</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>18.56117045231616</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.073567695085438</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>61.90919546454411</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>44.25793673090099</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.42130226825858</v>
+        <v>12.42130226825857</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.9653033936934</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>64.45828691912169</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.0198440937158</v>
+        <v>383.0198440937178</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.34583147339764</v>
       </c>
       <c r="I6" t="n">
-        <v>27.63492518706722</v>
+        <v>36.3160423925932</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0466996907028</v>
+        <v>143.0466996907027</v>
       </c>
       <c r="T6" t="n">
-        <v>193.950580588878</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8399542011172</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>39.72016663387027</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>159.5819666322041</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>116.5810943629793</v>
       </c>
       <c r="J7" t="n">
-        <v>1.978535422477933</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2714503991535298</v>
+        <v>119.177322371449</v>
       </c>
       <c r="S7" t="n">
-        <v>201.491627498362</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>222.4230353577824</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2485286662292</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>266.7331670745522</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>25.58299561021759</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>182.9387099570811</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>92.8796258427441</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>121.0049460963572</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806772</v>
+        <v>270.1915102239647</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114111</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458124</v>
+        <v>87.05432226458127</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035195</v>
+        <v>9.753166794035295</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>19.07296048407769</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034036</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146337</v>
+        <v>79.00824149146347</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076761</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>196.2511428064762</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>359.5517498754684</v>
+        <v>359.5517498754683</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>81.3725990111934</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>106.6494609395639</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.32649042089736</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>77.93612009725524</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2485,16 +2485,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>206.7582264966185</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408064</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2719,16 +2719,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>112.5284434523307</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>55.83068150864239</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>18.70843787977245</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3235,10 +3235,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>114.5157480654936</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3430,16 +3430,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>9.146142788179931</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>93.40444476188333</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="42">
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F43" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740345</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>28.23631843387903</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574.0438072739746</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="C2" t="n">
-        <v>574.0438072739746</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="D2" t="n">
-        <v>574.0438072739746</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="E2" t="n">
-        <v>574.0438072739746</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="F2" t="n">
-        <v>567.0983065247711</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="G2" t="n">
-        <v>403.9460998429521</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K2" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
         <v>888.5149683358416</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>1028.916998507423</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411526</v>
+        <v>814.4829423425513</v>
       </c>
       <c r="U2" t="n">
-        <v>840.4214638411526</v>
+        <v>560.79792428368</v>
       </c>
       <c r="V2" t="n">
-        <v>840.4214638411526</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="W2" t="n">
-        <v>840.4214638411526</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="X2" t="n">
-        <v>840.4214638411526</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="Y2" t="n">
-        <v>574.0438072739746</v>
+        <v>294.4202677165019</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>471.7187438561813</v>
+        <v>195.5501396812475</v>
       </c>
       <c r="C3" t="n">
-        <v>471.7187438561813</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>471.7187438561813</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>312.4812888507258</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4431,28 +4431,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166544</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>699.8545898193678</v>
+        <v>858.0464416374624</v>
       </c>
       <c r="U3" t="n">
-        <v>471.7187438561813</v>
+        <v>629.9105956742759</v>
       </c>
       <c r="V3" t="n">
-        <v>471.7187438561813</v>
+        <v>629.9105956742759</v>
       </c>
       <c r="W3" t="n">
-        <v>471.7187438561813</v>
+        <v>611.1619386517343</v>
       </c>
       <c r="X3" t="n">
-        <v>471.7187438561813</v>
+        <v>403.3104384462014</v>
       </c>
       <c r="Y3" t="n">
-        <v>471.7187438561813</v>
+        <v>195.5501396812475</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.32155393434483</v>
+        <v>252.5678342013043</v>
       </c>
       <c r="C4" t="n">
-        <v>36.32155393434483</v>
+        <v>83.63165127339738</v>
       </c>
       <c r="D4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>700.593955598722</v>
       </c>
       <c r="U4" t="n">
-        <v>788.4778634388466</v>
+        <v>700.593955598722</v>
       </c>
       <c r="V4" t="n">
-        <v>533.7933752329598</v>
+        <v>700.593955598722</v>
       </c>
       <c r="W4" t="n">
-        <v>267.4157186657818</v>
+        <v>434.216299031544</v>
       </c>
       <c r="X4" t="n">
-        <v>39.42616776776447</v>
+        <v>434.216299031544</v>
       </c>
       <c r="Y4" t="n">
-        <v>39.42616776776447</v>
+        <v>434.216299031544</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>87.89334409230491</v>
+        <v>749.018376897119</v>
       </c>
       <c r="C5" t="n">
-        <v>87.89334409230491</v>
+        <v>749.018376897119</v>
       </c>
       <c r="D5" t="n">
-        <v>87.89334409230491</v>
+        <v>749.018376897119</v>
       </c>
       <c r="E5" t="n">
-        <v>87.89334409230491</v>
+        <v>363.2301242988747</v>
       </c>
       <c r="F5" t="n">
-        <v>43.18835749543523</v>
+        <v>356.2846235496712</v>
       </c>
       <c r="G5" t="n">
-        <v>30.64158752749726</v>
+        <v>343.7378535817332</v>
       </c>
       <c r="H5" t="n">
-        <v>30.64158752749726</v>
+        <v>30.64158752749742</v>
       </c>
       <c r="I5" t="n">
-        <v>30.64158752749726</v>
+        <v>30.64158752749742</v>
       </c>
       <c r="J5" t="n">
-        <v>93.51877468281413</v>
+        <v>93.51877468281464</v>
       </c>
       <c r="K5" t="n">
-        <v>238.493897245298</v>
+        <v>238.4938972452995</v>
       </c>
       <c r="L5" t="n">
-        <v>455.250118219255</v>
+        <v>455.2501182192578</v>
       </c>
       <c r="M5" t="n">
-        <v>728.1026159494226</v>
+        <v>728.1026159494264</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.983960730201</v>
+        <v>1009.983960730206</v>
       </c>
       <c r="O5" t="n">
-        <v>1262.821260145368</v>
+        <v>1262.821260145374</v>
       </c>
       <c r="P5" t="n">
-        <v>1444.111044739598</v>
+        <v>1444.111044739605</v>
       </c>
       <c r="Q5" t="n">
-        <v>1532.079376374863</v>
+        <v>1532.079376374871</v>
       </c>
       <c r="R5" t="n">
-        <v>1532.079376374863</v>
+        <v>1532.079376374871</v>
       </c>
       <c r="S5" t="n">
-        <v>1532.079376374863</v>
+        <v>1466.969995648486</v>
       </c>
       <c r="T5" t="n">
-        <v>1532.079376374863</v>
+        <v>1466.969995648486</v>
       </c>
       <c r="U5" t="n">
-        <v>1532.079376374863</v>
+        <v>1466.969995648486</v>
       </c>
       <c r="V5" t="n">
-        <v>1201.016489031293</v>
+        <v>1135.907108304915</v>
       </c>
       <c r="W5" t="n">
-        <v>848.2478337611785</v>
+        <v>1135.907108304915</v>
       </c>
       <c r="X5" t="n">
-        <v>474.7820755000986</v>
+        <v>1135.907108304915</v>
       </c>
       <c r="Y5" t="n">
-        <v>87.89334409230491</v>
+        <v>749.018376897119</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58.55565337301971</v>
+        <v>489.0410202739068</v>
       </c>
       <c r="C6" t="n">
-        <v>58.55565337301971</v>
+        <v>314.5879909927799</v>
       </c>
       <c r="D6" t="n">
-        <v>58.55565337301971</v>
+        <v>165.6535813315286</v>
       </c>
       <c r="E6" t="n">
-        <v>58.55565337301971</v>
+        <v>165.6535813315286</v>
       </c>
       <c r="F6" t="n">
-        <v>58.55565337301971</v>
+        <v>165.6535813315286</v>
       </c>
       <c r="G6" t="n">
-        <v>58.55565337301971</v>
+        <v>165.6535813315286</v>
       </c>
       <c r="H6" t="n">
-        <v>58.55565337301971</v>
+        <v>67.32445863112693</v>
       </c>
       <c r="I6" t="n">
-        <v>30.64158752749726</v>
+        <v>30.64158752749742</v>
       </c>
       <c r="J6" t="n">
-        <v>49.27296248835641</v>
+        <v>49.27296248835691</v>
       </c>
       <c r="K6" t="n">
-        <v>167.4938439491656</v>
+        <v>202.9042018085673</v>
       </c>
       <c r="L6" t="n">
-        <v>361.7233626622915</v>
+        <v>582.0938474613479</v>
       </c>
       <c r="M6" t="n">
-        <v>607.7369179582284</v>
+        <v>828.1074027572856</v>
       </c>
       <c r="N6" t="n">
-        <v>874.6703649424155</v>
+        <v>1095.040849741474</v>
       </c>
       <c r="O6" t="n">
-        <v>1096.642524052416</v>
+        <v>1317.013008851475</v>
       </c>
       <c r="P6" t="n">
-        <v>1475.832169705195</v>
+        <v>1475.832169705202</v>
       </c>
       <c r="Q6" t="n">
-        <v>1532.079376374863</v>
+        <v>1532.079376374871</v>
       </c>
       <c r="R6" t="n">
-        <v>1532.079376374863</v>
+        <v>1532.079376374871</v>
       </c>
       <c r="S6" t="n">
-        <v>1387.587760525668</v>
+        <v>1387.587760525676</v>
       </c>
       <c r="T6" t="n">
-        <v>1191.678083163165</v>
+        <v>1387.587760525676</v>
       </c>
       <c r="U6" t="n">
-        <v>963.5569173034509</v>
+        <v>1159.466594665962</v>
       </c>
       <c r="V6" t="n">
-        <v>728.4048090717081</v>
+        <v>1119.345214227709</v>
       </c>
       <c r="W6" t="n">
-        <v>474.1674523435065</v>
+        <v>865.1078574995076</v>
       </c>
       <c r="X6" t="n">
-        <v>266.3159521379736</v>
+        <v>657.2563572939748</v>
       </c>
       <c r="Y6" t="n">
-        <v>58.55565337301971</v>
+        <v>657.2563572939748</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32.64010815626285</v>
+        <v>309.5941743913191</v>
       </c>
       <c r="C7" t="n">
-        <v>32.64010815626285</v>
+        <v>309.5941743913191</v>
       </c>
       <c r="D7" t="n">
-        <v>32.64010815626285</v>
+        <v>309.5941743913191</v>
       </c>
       <c r="E7" t="n">
-        <v>32.64010815626285</v>
+        <v>309.5941743913191</v>
       </c>
       <c r="F7" t="n">
-        <v>32.64010815626285</v>
+        <v>309.5941743913191</v>
       </c>
       <c r="G7" t="n">
-        <v>32.64010815626285</v>
+        <v>148.400268702224</v>
       </c>
       <c r="H7" t="n">
-        <v>32.64010815626285</v>
+        <v>148.400268702224</v>
       </c>
       <c r="I7" t="n">
-        <v>32.64010815626285</v>
+        <v>30.64158752749742</v>
       </c>
       <c r="J7" t="n">
-        <v>30.64158752749726</v>
+        <v>30.64158752749742</v>
       </c>
       <c r="K7" t="n">
-        <v>157.2595961747005</v>
+        <v>157.259596174701</v>
       </c>
       <c r="L7" t="n">
-        <v>374.8134887914625</v>
+        <v>374.8134887914634</v>
       </c>
       <c r="M7" t="n">
-        <v>614.5826883437697</v>
+        <v>614.5826883437712</v>
       </c>
       <c r="N7" t="n">
-        <v>854.0853286630879</v>
+        <v>854.0853286630899</v>
       </c>
       <c r="O7" t="n">
-        <v>1059.288486109134</v>
+        <v>1059.288486109136</v>
       </c>
       <c r="P7" t="n">
-        <v>1211.354555016232</v>
+        <v>1211.354555016234</v>
       </c>
       <c r="Q7" t="n">
-        <v>1233.202138767126</v>
+        <v>1233.202138767129</v>
       </c>
       <c r="R7" t="n">
-        <v>1232.927946444748</v>
+        <v>1112.821005058594</v>
       </c>
       <c r="S7" t="n">
-        <v>1029.401049981756</v>
+        <v>1112.821005058594</v>
       </c>
       <c r="T7" t="n">
-        <v>804.7313172971277</v>
+        <v>888.1512723739658</v>
       </c>
       <c r="U7" t="n">
-        <v>804.7313172971277</v>
+        <v>599.0113444282797</v>
       </c>
       <c r="V7" t="n">
-        <v>550.0468290912409</v>
+        <v>599.0113444282797</v>
       </c>
       <c r="W7" t="n">
-        <v>260.6296590542802</v>
+        <v>309.5941743913191</v>
       </c>
       <c r="X7" t="n">
-        <v>32.64010815626285</v>
+        <v>309.5941743913191</v>
       </c>
       <c r="Y7" t="n">
-        <v>32.64010815626285</v>
+        <v>309.5941743913191</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1844.676600992464</v>
+        <v>1588.383781964454</v>
       </c>
       <c r="C8" t="n">
-        <v>1475.714084052052</v>
+        <v>1588.383781964454</v>
       </c>
       <c r="D8" t="n">
-        <v>1117.448385445302</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E8" t="n">
-        <v>731.6601328470574</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>320.6742280574499</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800313</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800313</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4817,37 +4817,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056586</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056586</v>
+        <v>2000.825031735866</v>
       </c>
       <c r="X8" t="n">
-        <v>2231.276441056586</v>
+        <v>1974.983622028575</v>
       </c>
       <c r="Y8" t="n">
-        <v>2231.276441056586</v>
+        <v>1974.983622028575</v>
       </c>
     </row>
     <row r="9">
@@ -4857,61 +4857,61 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1489515180662</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>717.852508549538</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508758</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425661</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601822</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.04689843412</v>
+        <v>2238.100841080694</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400156</v>
+        <v>2561.393271046731</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
         <v>2004.520742047138</v>
@@ -4920,10 +4920,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>368.0960630783031</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C10" t="n">
-        <v>199.1598801503962</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>199.1598801503962</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074498</v>
+        <v>1451.659544360274</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074498</v>
+        <v>1228.681063555009</v>
       </c>
       <c r="U10" t="n">
-        <v>1542.628316192938</v>
+        <v>939.5627260588469</v>
       </c>
       <c r="V10" t="n">
-        <v>1287.943827987051</v>
+        <v>939.5627260588469</v>
       </c>
       <c r="W10" t="n">
-        <v>998.5266579500903</v>
+        <v>650.1455560218863</v>
       </c>
       <c r="X10" t="n">
-        <v>770.537107052073</v>
+        <v>422.1560051238689</v>
       </c>
       <c r="Y10" t="n">
-        <v>549.7445279085429</v>
+        <v>201.3634259803388</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2020.823851532406</v>
+        <v>1535.258832689348</v>
       </c>
       <c r="C11" t="n">
-        <v>1651.861334591994</v>
+        <v>1535.258832689348</v>
       </c>
       <c r="D11" t="n">
-        <v>1293.595635985243</v>
+        <v>1176.993134082597</v>
       </c>
       <c r="E11" t="n">
-        <v>907.8073833869989</v>
+        <v>1176.993134082597</v>
       </c>
       <c r="F11" t="n">
-        <v>785.58016510785</v>
+        <v>766.0072292929895</v>
       </c>
       <c r="G11" t="n">
-        <v>371.0047194374972</v>
+        <v>351.4317836226361</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386834</v>
+        <v>308.7333971386827</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420323</v>
+        <v>704.5155104420312</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301226</v>
+        <v>1232.419981301223</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878111</v>
+        <v>1851.484858878107</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765427</v>
+        <v>2485.180661765422</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687103</v>
+        <v>3070.226377687098</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856285</v>
+        <v>3535.048359856279</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882243</v>
+        <v>3835.937563882238</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234593</v>
+        <v>3925.553311234587</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.553311234593</v>
+        <v>3826.588132455657</v>
       </c>
       <c r="T11" t="n">
-        <v>3721.751200750373</v>
+        <v>3622.786021971437</v>
       </c>
       <c r="U11" t="n">
-        <v>3468.260484382982</v>
+        <v>3369.295305604046</v>
       </c>
       <c r="V11" t="n">
-        <v>3137.197597039411</v>
+        <v>3038.232418260475</v>
       </c>
       <c r="W11" t="n">
-        <v>2784.428941769297</v>
+        <v>2685.463762990361</v>
       </c>
       <c r="X11" t="n">
-        <v>2410.963183508217</v>
+        <v>2311.998004729281</v>
       </c>
       <c r="Y11" t="n">
-        <v>2020.823851532406</v>
+        <v>1921.858672753469</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503046</v>
+        <v>88.36274985503043</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="J12" t="n">
-        <v>196.812062379213</v>
+        <v>196.8120623792126</v>
       </c>
       <c r="K12" t="n">
-        <v>196.812062379213</v>
+        <v>477.1621322376497</v>
       </c>
       <c r="L12" t="n">
-        <v>480.1171086843885</v>
+        <v>900.4499396649588</v>
       </c>
       <c r="M12" t="n">
-        <v>993.4308829282782</v>
+        <v>977.3905023848084</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279345</v>
+        <v>1518.698809735875</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145095</v>
+        <v>1991.670362601623</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2351.938665441778</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>674.9306931130562</v>
+        <v>226.4241598070849</v>
       </c>
       <c r="C13" t="n">
-        <v>505.9945101851494</v>
+        <v>226.4241598070849</v>
       </c>
       <c r="D13" t="n">
-        <v>355.8778707728136</v>
+        <v>226.4241598070849</v>
       </c>
       <c r="E13" t="n">
-        <v>336.6122541222303</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="F13" t="n">
-        <v>336.6122541222303</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="G13" t="n">
-        <v>169.1323565987731</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="H13" t="n">
-        <v>169.1323565987731</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600401</v>
+        <v>139.0818334600398</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457705</v>
+        <v>368.4550473457699</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888919</v>
+        <v>717.500225288891</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779221</v>
+        <v>1095.90854877922</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542994</v>
+        <v>1470.753784542992</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715849</v>
+        <v>1800.967734715847</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082522</v>
+        <v>2060.002133082519</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551105</v>
+        <v>2155.909043551103</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014274</v>
+        <v>2076.102739014271</v>
       </c>
       <c r="S13" t="n">
-        <v>1888.302075370156</v>
+        <v>1888.302075370153</v>
       </c>
       <c r="T13" t="n">
-        <v>1667.488017920202</v>
+        <v>1667.4880179202</v>
       </c>
       <c r="U13" t="n">
-        <v>1378.397311360491</v>
+        <v>1378.397311360489</v>
       </c>
       <c r="V13" t="n">
-        <v>1123.712823154604</v>
+        <v>1123.712823154602</v>
       </c>
       <c r="W13" t="n">
-        <v>1123.712823154604</v>
+        <v>834.2956531176412</v>
       </c>
       <c r="X13" t="n">
-        <v>895.7232722565864</v>
+        <v>606.3061022196239</v>
       </c>
       <c r="Y13" t="n">
-        <v>674.9306931130562</v>
+        <v>408.0726246373246</v>
       </c>
     </row>
     <row r="14">
@@ -5279,22 +5279,22 @@
         <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128774</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957691</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333935</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021283</v>
       </c>
       <c r="Q14" t="n">
         <v>4514.49737412729</v>
@@ -5352,31 +5352,31 @@
         <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608056</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K15" t="n">
-        <v>423.3203657894393</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L15" t="n">
-        <v>914.0526986331906</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M15" t="n">
-        <v>1506.071052885318</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="N15" t="n">
-        <v>2128.167016284654</v>
+        <v>1320.428158124812</v>
       </c>
       <c r="O15" t="n">
-        <v>2133.192111344164</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>614.3218126983095</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="C16" t="n">
-        <v>614.3218126983095</v>
+        <v>325.1228070941668</v>
       </c>
       <c r="D16" t="n">
-        <v>464.2051732859737</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="E16" t="n">
-        <v>464.2051732859737</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="F16" t="n">
-        <v>317.3152257880633</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="G16" t="n">
-        <v>317.3152257880633</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
         <v>92.81162322608056</v>
@@ -5437,16 +5437,16 @@
         <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861982</v>
+        <v>431.4224730861984</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693325</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
@@ -5464,7 +5464,7 @@
         <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>1957.667456821981</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U16" t="n">
         <v>1668.591243136708</v>
@@ -5476,10 +5476,10 @@
         <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>1016.762856672079</v>
+        <v>896.5000339958435</v>
       </c>
       <c r="Y16" t="n">
-        <v>795.9702775285492</v>
+        <v>675.7074548523134</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,10 +5531,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452613</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458821</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5674,7 +5674,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797745</v>
@@ -5686,37 +5686,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2392.08784073087</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2209.233006385774</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1989.631541408715</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1700.556314752913</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1445.871826547026</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1156.454656510065</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>928.4651056120481</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y19" t="n">
-        <v>707.672526468518</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,13 +5738,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
@@ -5756,13 +5756,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5835,22 +5835,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>721.7774158311365</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>552.8412329032296</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5911,7 +5911,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797742</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2185.384895601574</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>903.4258806613763</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,10 +5984,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,7 +6148,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797745</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2018.514925172273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172273</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237295</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093765</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="26">
@@ -6206,10 +6206,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6218,25 +6218,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6303,19 +6303,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C28" t="n">
-        <v>700.7543264856226</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D28" t="n">
-        <v>550.6376870732869</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6388,10 +6388,10 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2333.297989183966</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797742</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1560.161572207407</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y31" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6701,7 +6701,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6786,19 +6786,19 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>800.6374272687975</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578603</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.244907039234</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.244907039234</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1975.169680383432</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1720.485192177546</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1431.068022140585</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1203.078471242568</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.2858920990373</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.899304487669</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597622</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597622</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297716</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597624</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597624</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F40" t="n">
-        <v>411.9631215597624</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570817</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="41">
@@ -7409,13 +7409,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C43" t="n">
-        <v>411.963121559762</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D43" t="n">
-        <v>411.963121559762</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E43" t="n">
-        <v>411.963121559762</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="44">
@@ -7652,13 +7652,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,7 +7667,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>264.0500279773688</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>264.0500279773688</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.5845809875278</v>
+        <v>34.58458098752737</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>8.305120571751573</v>
+        <v>44.07315881357036</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>186.8284110501555</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>222.5964492919721</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>193.3273467878354</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154985</v>
+        <v>21.89339468985728</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>285.8710996453542</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>19.37720645671257</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238021</v>
+        <v>22.60777203238041</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114098</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>127.3610021624915</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.71507747034043</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>22.33351054561862</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>50.29152613728922</v>
+        <v>50.29152613728928</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>84.16945386597352</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>119.0601944494732</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>40.3204386478856</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>12.0487562892243</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>65.54986409393057</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>79.42624789262561</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>46.45968844823076</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393041</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>104.8770068749576</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>230.6923168279486</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>126.7126101431588</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>66.51053793615097</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25318,16 +25318,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>137.2878198583892</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294951</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>72.11969353038552</v>
+        <v>65.54986409393055</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F43" t="n">
-        <v>136.2749052347518</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>45.44677382459331</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>137.2878198583898</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>873970.1565286469</v>
+        <v>873970.1565286462</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>956326.5261809175</v>
+        <v>956326.5261809174</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>956326.5261809176</v>
+        <v>956326.5261809174</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>956326.5261809175</v>
+        <v>956326.5261809174</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>956326.5261809175</v>
+        <v>956326.5261809174</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>956326.5261809175</v>
+        <v>956326.5261809174</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>956326.5261809175</v>
+        <v>956326.5261809173</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>956326.5261809175</v>
+        <v>956326.5261809174</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>956326.5261809175</v>
+        <v>956326.5261809174</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>956326.5261809175</v>
+        <v>956326.5261809174</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719634</v>
+        <v>472099.0176719635</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
-        <v>423807.2415876634</v>
+        <v>423807.2415876633</v>
       </c>
       <c r="F2" t="n">
-        <v>461540.8686918677</v>
+        <v>461540.8686918676</v>
       </c>
       <c r="G2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="H2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="I2" t="n">
         <v>464109.2948217537</v>
@@ -26338,22 +26338,22 @@
         <v>464109.2948217536</v>
       </c>
       <c r="K2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="M2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="N2" t="n">
+        <v>464109.2948217536</v>
+      </c>
+      <c r="O2" t="n">
+        <v>464109.2948217536</v>
+      </c>
+      <c r="P2" t="n">
         <v>464109.2948217535</v>
-      </c>
-      <c r="O2" t="n">
-        <v>464109.2948217534</v>
-      </c>
-      <c r="P2" t="n">
-        <v>464109.2948217536</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132064.9098103545</v>
+        <v>132064.9098103566</v>
       </c>
       <c r="D3" t="n">
-        <v>266112.9182196356</v>
+        <v>266112.9182196332</v>
       </c>
       <c r="E3" t="n">
-        <v>325187.1190357067</v>
+        <v>325187.1190357055</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051377</v>
+        <v>166521.3471051392</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557892</v>
+        <v>11167.23623557874</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>30705.53736648381</v>
+        <v>30705.5373664843</v>
       </c>
       <c r="L3" t="n">
-        <v>65187.38037950837</v>
+        <v>65187.38037950781</v>
       </c>
       <c r="M3" t="n">
-        <v>84929.59434456821</v>
+        <v>84929.59434456796</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848914</v>
+        <v>43782.40655848945</v>
       </c>
       <c r="O3" t="n">
         <v>3023.297977224584</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247648.567042389</v>
+        <v>247648.5670423891</v>
       </c>
       <c r="C4" t="n">
-        <v>211763.6814565033</v>
+        <v>211763.6814565027</v>
       </c>
       <c r="D4" t="n">
         <v>135522.1369769831</v>
       </c>
       <c r="E4" t="n">
-        <v>8628.135434438242</v>
+        <v>8628.135434438238</v>
       </c>
       <c r="F4" t="n">
         <v>8720.723770518931</v>
       </c>
       <c r="G4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="H4" t="n">
         <v>8727.256391744284</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="I4" t="n">
-        <v>8727.256391744286</v>
-      </c>
       <c r="J4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744306</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744295</v>
+        <v>8727.256391744297</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744293</v>
+        <v>8727.256391744289</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744348</v>
+        <v>8727.256391744297</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744295</v>
+        <v>8727.256391744304</v>
       </c>
       <c r="P4" t="n">
         <v>8727.256391744282</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>72540.50950589732</v>
+        <v>72540.50950589747</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214714</v>
+        <v>86093.72216214702</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-518685.3331658849</v>
       </c>
       <c r="C6" t="n">
-        <v>55729.9168992078</v>
+        <v>55729.91689920638</v>
       </c>
       <c r="D6" t="n">
-        <v>-22473.8099645004</v>
+        <v>-22473.80996449789</v>
       </c>
       <c r="E6" t="n">
-        <v>3898.264955371298</v>
+        <v>3688.300711527797</v>
       </c>
       <c r="F6" t="n">
-        <v>186156.6693023727</v>
+        <v>186110.7643068054</v>
       </c>
       <c r="G6" t="n">
-        <v>343092.2723705232</v>
+        <v>343057.5344450878</v>
       </c>
       <c r="H6" t="n">
-        <v>354259.5086061023</v>
+        <v>354224.7706806666</v>
       </c>
       <c r="I6" t="n">
-        <v>354259.5086061023</v>
+        <v>354224.7706806666</v>
       </c>
       <c r="J6" t="n">
-        <v>285260.3541869881</v>
+        <v>285225.6162615524</v>
       </c>
       <c r="K6" t="n">
-        <v>323553.9712396184</v>
+        <v>323519.2333141823</v>
       </c>
       <c r="L6" t="n">
-        <v>289072.1282265938</v>
+        <v>289037.3903011588</v>
       </c>
       <c r="M6" t="n">
-        <v>269329.9142615339</v>
+        <v>269295.1763360985</v>
       </c>
       <c r="N6" t="n">
-        <v>310477.1020476129</v>
+        <v>310442.364122177</v>
       </c>
       <c r="O6" t="n">
-        <v>351236.2106288774</v>
+        <v>351201.4727034419</v>
       </c>
       <c r="P6" t="n">
-        <v>354259.5086061021</v>
+        <v>354224.7706806664</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>716.7570176605228</v>
+        <v>716.7570176605245</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494556</v>
+        <v>1212.170267494555</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>383.0198440937158</v>
+        <v>383.0198440937178</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086483</v>
+        <v>981.3883278086469</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326007</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>102.7020038910446</v>
+        <v>102.7020038910462</v>
       </c>
       <c r="D3" t="n">
-        <v>217.3078744570166</v>
+        <v>217.3078744570146</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1053753770169</v>
+        <v>278.1053753770159</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218295</v>
+        <v>145.8707812218308</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>119.3059640922096</v>
+        <v>119.3059640922116</v>
       </c>
       <c r="D4" t="n">
-        <v>257.5649880063233</v>
+        <v>257.5649880063211</v>
       </c>
       <c r="E4" t="n">
-        <v>340.8034957086093</v>
+        <v>340.803495708608</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173586</v>
+        <v>178.7569625173601</v>
       </c>
       <c r="G4" t="n">
         <v>12.56299777364143</v>
@@ -27036,16 +27036,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.3059640922096</v>
+        <v>119.3059640922115</v>
       </c>
       <c r="L4" t="n">
-        <v>257.5649880063233</v>
+        <v>257.5649880063211</v>
       </c>
       <c r="M4" t="n">
-        <v>340.803495708609</v>
+        <v>340.803495708608</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173588</v>
+        <v>178.7569625173601</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364143</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.3059640922096</v>
+        <v>119.3059640922116</v>
       </c>
       <c r="L4" t="n">
-        <v>257.5649880063233</v>
+        <v>257.5649880063211</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086093</v>
+        <v>340.803495708608</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173586</v>
+        <v>178.7569625173601</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364143</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>251.3134900307091</v>
+        <v>149.1202946442038</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776185</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>127.0885569156067</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,25 +27458,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>8.692527067563077</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>233.1338127086034</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>176.7584124868519</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>86.70627755366824</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,7 +27558,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117135</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>362.6181090108104</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9653033936935</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.38935721520063</v>
+        <v>99.38935721520038</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3593638980477</v>
+        <v>78.90107697892583</v>
       </c>
       <c r="T5" t="n">
         <v>210.4823667709296</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.218094562337797</v>
+        <v>3.218094562335807</v>
       </c>
     </row>
     <row r="6">
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27710,10 +27710,10 @@
         <v>135.8018133893748</v>
       </c>
       <c r="H6" t="n">
-        <v>97.34583147339768</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>8.681117205526114</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.436963001677427</v>
+        <v>4.436963001677199</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.950580588878</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>193.080420515555</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6984667036611</v>
+        <v>7.116500071457011</v>
       </c>
       <c r="H7" t="n">
         <v>150.735559994784</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5810943629794</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.978535422477719</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>118.9058719722955</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.491627498362</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2485286662292</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>144.8145356984018</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>344.1481050682514</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,7 +28026,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28059,16 +28059,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>11.72375040465641</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>193.3475282784565</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29943,7 +29943,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="42">
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.881435246876471</v>
+        <v>2.881435246876478</v>
       </c>
       <c r="H5" t="n">
-        <v>29.50949872207367</v>
+        <v>29.50949872207374</v>
       </c>
       <c r="I5" t="n">
-        <v>111.0865323552053</v>
+        <v>111.0865323552055</v>
       </c>
       <c r="J5" t="n">
-        <v>244.5582147845821</v>
+        <v>244.5582147845827</v>
       </c>
       <c r="K5" t="n">
-        <v>366.5293687848633</v>
+        <v>366.5293687848641</v>
       </c>
       <c r="L5" t="n">
-        <v>454.7120927214592</v>
+        <v>454.7120927214602</v>
       </c>
       <c r="M5" t="n">
-        <v>505.9548167930986</v>
+        <v>505.9548167930998</v>
       </c>
       <c r="N5" t="n">
-        <v>514.1416946882864</v>
+        <v>514.1416946882877</v>
       </c>
       <c r="O5" t="n">
-        <v>485.4894229521585</v>
+        <v>485.4894229521596</v>
       </c>
       <c r="P5" t="n">
-        <v>414.3539902948955</v>
+        <v>414.3539902948965</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.1625905161318</v>
+        <v>311.1625905161325</v>
       </c>
       <c r="R5" t="n">
-        <v>181.0009568266043</v>
+        <v>181.0009568266047</v>
       </c>
       <c r="S5" t="n">
-        <v>65.66070568819767</v>
+        <v>65.66070568819782</v>
       </c>
       <c r="T5" t="n">
-        <v>12.61348279320176</v>
+        <v>12.61348279320179</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2305148197501177</v>
+        <v>0.2305148197501182</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.541703773835842</v>
+        <v>1.541703773835845</v>
       </c>
       <c r="H6" t="n">
-        <v>14.88961276309879</v>
+        <v>14.88961276309882</v>
       </c>
       <c r="I6" t="n">
-        <v>53.08059045882175</v>
+        <v>53.08059045882187</v>
       </c>
       <c r="J6" t="n">
-        <v>145.6571973342012</v>
+        <v>145.6571973342015</v>
       </c>
       <c r="K6" t="n">
-        <v>248.9513501812025</v>
+        <v>248.9513501812031</v>
       </c>
       <c r="L6" t="n">
-        <v>334.7458128234357</v>
+        <v>334.7458128234365</v>
       </c>
       <c r="M6" t="n">
-        <v>390.6325746249849</v>
+        <v>390.6325746249858</v>
       </c>
       <c r="N6" t="n">
-        <v>400.9714565118051</v>
+        <v>400.9714565118061</v>
       </c>
       <c r="O6" t="n">
-        <v>366.8105465757583</v>
+        <v>366.8105465757592</v>
       </c>
       <c r="P6" t="n">
-        <v>294.397802216074</v>
+        <v>294.3978022160747</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.7971343584138</v>
+        <v>196.7971343584142</v>
       </c>
       <c r="R6" t="n">
-        <v>95.72087115096571</v>
+        <v>95.72087115096593</v>
       </c>
       <c r="S6" t="n">
-        <v>28.63647141313502</v>
+        <v>28.63647141313509</v>
       </c>
       <c r="T6" t="n">
-        <v>6.214148105943587</v>
+        <v>6.214148105943602</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1014278798576212</v>
+        <v>0.1014278798576214</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.292512654797664</v>
+        <v>1.292512654797667</v>
       </c>
       <c r="H7" t="n">
-        <v>11.4916125126556</v>
+        <v>11.49161251265563</v>
       </c>
       <c r="I7" t="n">
-        <v>38.86938056427885</v>
+        <v>38.86938056427894</v>
       </c>
       <c r="J7" t="n">
-        <v>91.38064469419484</v>
+        <v>91.38064469419506</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1664702574013</v>
+        <v>150.1664702574016</v>
       </c>
       <c r="L7" t="n">
-        <v>192.1613814232818</v>
+        <v>192.1613814232823</v>
       </c>
       <c r="M7" t="n">
-        <v>202.6072336970556</v>
+        <v>202.6072336970561</v>
       </c>
       <c r="N7" t="n">
-        <v>197.7896865291736</v>
+        <v>197.789686529174</v>
       </c>
       <c r="O7" t="n">
-        <v>182.6907886981281</v>
+        <v>182.6907886981285</v>
       </c>
       <c r="P7" t="n">
-        <v>156.3235305402556</v>
+        <v>156.3235305402559</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.2303096667389</v>
+        <v>108.2303096667392</v>
       </c>
       <c r="R7" t="n">
-        <v>58.11606900572041</v>
+        <v>58.11606900572054</v>
       </c>
       <c r="S7" t="n">
-        <v>22.52497053861019</v>
+        <v>22.52497053861024</v>
       </c>
       <c r="T7" t="n">
-        <v>5.522554070499108</v>
+        <v>5.522554070499122</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07050069026169084</v>
+        <v>0.07050069026169101</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,25 +31677,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.87304630148565</v>
+        <v>4.873046301485645</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508993</v>
+        <v>49.90608543508987</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380257</v>
+        <v>187.8681175380255</v>
       </c>
       <c r="J11" t="n">
-        <v>413.593713530718</v>
+        <v>413.5937135307176</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726058</v>
+        <v>619.8697634726051</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216974</v>
+        <v>769.0032542216965</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857428</v>
+        <v>855.6642913857418</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898389</v>
+        <v>869.509834189838</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294409</v>
+        <v>821.05348002944</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615138</v>
+        <v>700.750149461513</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895589</v>
+        <v>526.2341787895583</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356982</v>
+        <v>306.1064947356979</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951044</v>
+        <v>111.0445425951042</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475345</v>
+        <v>21.33176018475342</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188519</v>
+        <v>0.3898437041188515</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969423</v>
+        <v>2.60730963196942</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191522</v>
+        <v>25.18112197191519</v>
       </c>
       <c r="I12" t="n">
-        <v>89.7692132059648</v>
+        <v>89.7692132059647</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783042</v>
+        <v>246.3335823783039</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>421.0233277202551</v>
       </c>
       <c r="L12" t="n">
-        <v>424.7210932194454</v>
+        <v>566.117821625641</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845331</v>
+        <v>219.8517740430785</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147142</v>
+        <v>678.1177801147134</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431811</v>
+        <v>620.3452877431804</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205472</v>
+        <v>497.8817840205466</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071846</v>
+        <v>332.8207874071843</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533295</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697588</v>
+        <v>48.42963285697582</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780657</v>
+        <v>10.50928750780656</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190411</v>
+        <v>0.1715335284190409</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236085</v>
+        <v>2.185880810236083</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737175</v>
+        <v>19.43446756737173</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691792</v>
+        <v>65.73539745691785</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836912</v>
+        <v>154.541773283691</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619742</v>
+        <v>253.9596068619739</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509176</v>
+        <v>324.9808615509173</v>
       </c>
       <c r="M13" t="n">
-        <v>342.646752826371</v>
+        <v>342.6467528263706</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973095</v>
+        <v>334.4993788973091</v>
       </c>
       <c r="O13" t="n">
-        <v>308.964316705006</v>
+        <v>308.9643167050057</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761897</v>
+        <v>264.3723481761893</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.037710391678</v>
+        <v>183.0377103916778</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570612</v>
+        <v>98.28514988570602</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929613</v>
+        <v>38.09394102929608</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826906</v>
+        <v>9.339672552826896</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765139</v>
+        <v>0.1192298623765137</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,10 +32072,10 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
         <v>471.6886536848224</v>
@@ -32084,22 +32084,22 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>391.6330708361143</v>
       </c>
       <c r="O15" t="n">
-        <v>147.6720980399086</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
         <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S15" t="n">
         <v>54.25758340862161</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32555,7 +32555,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>137.7376326175082</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,22 +33023,22 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>530.5785304507792</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,16 +33734,16 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,7 +33752,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33974,28 +33974,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,25 +34205,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>638.9422653403558</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089029</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>245.5483596572287</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.51231025789585</v>
+        <v>63.51231025789644</v>
       </c>
       <c r="K5" t="n">
-        <v>146.4395177398827</v>
+        <v>146.4395177398836</v>
       </c>
       <c r="L5" t="n">
-        <v>218.9456777514719</v>
+        <v>218.945677751473</v>
       </c>
       <c r="M5" t="n">
-        <v>275.6085835658258</v>
+        <v>275.6085835658271</v>
       </c>
       <c r="N5" t="n">
-        <v>284.7286310916955</v>
+        <v>284.7286310916967</v>
       </c>
       <c r="O5" t="n">
-        <v>255.3912115304717</v>
+        <v>255.3912115304729</v>
       </c>
       <c r="P5" t="n">
-        <v>183.1209945396259</v>
+        <v>183.120994539627</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.8569006416823</v>
+        <v>88.85690064168304</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.81957066753449</v>
+        <v>18.81957066753483</v>
       </c>
       <c r="K6" t="n">
-        <v>119.4150317785951</v>
+        <v>155.1830700204145</v>
       </c>
       <c r="L6" t="n">
-        <v>196.1914330435615</v>
+        <v>383.0198440937178</v>
       </c>
       <c r="M6" t="n">
-        <v>248.4985407029666</v>
+        <v>248.4985407029675</v>
       </c>
       <c r="N6" t="n">
-        <v>269.6297444284718</v>
+        <v>269.6297444284728</v>
       </c>
       <c r="O6" t="n">
-        <v>224.2143021313139</v>
+        <v>224.2143021313148</v>
       </c>
       <c r="P6" t="n">
-        <v>383.0198440937158</v>
+        <v>160.4233948017445</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.81536027239224</v>
+        <v>56.81536027239272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>127.8969784315184</v>
+        <v>127.8969784315188</v>
       </c>
       <c r="L7" t="n">
-        <v>219.751406683598</v>
+        <v>219.7514066835984</v>
       </c>
       <c r="M7" t="n">
-        <v>242.1911106588962</v>
+        <v>242.1911106588967</v>
       </c>
       <c r="N7" t="n">
-        <v>241.9218589084022</v>
+        <v>241.9218589084026</v>
       </c>
       <c r="O7" t="n">
-        <v>207.2759166121677</v>
+        <v>207.2759166121682</v>
       </c>
       <c r="P7" t="n">
-        <v>153.6020898051491</v>
+        <v>153.6020898051494</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.06826641504456</v>
+        <v>22.06826641504482</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434849</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>584.5244463807094</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>0.9556134883073677</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040318</v>
+        <v>232.5478090040313</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276252</v>
+        <v>399.7799124276245</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517101</v>
+        <v>533.2368392517092</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584701</v>
+        <v>625.3180581584691</v>
       </c>
       <c r="N11" t="n">
-        <v>640.096770593248</v>
+        <v>640.0967705932471</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077542</v>
+        <v>590.9552686077533</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062443</v>
+        <v>469.5171537062435</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151094</v>
+        <v>303.9284889151088</v>
       </c>
       <c r="R11" t="n">
-        <v>90.5209569215661</v>
+        <v>90.52095692156576</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116375</v>
+        <v>119.4959557116372</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>283.1818887458961</v>
       </c>
       <c r="L12" t="n">
-        <v>286.1667134395713</v>
+        <v>427.5634418457668</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625148</v>
+        <v>77.7177401210602</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313809</v>
+        <v>546.7760680313801</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987366</v>
+        <v>477.749043298736</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062169</v>
+        <v>363.9073766062164</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211631</v>
+        <v>192.8390133211628</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936556</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701844</v>
+        <v>61.18259316701824</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360913</v>
+        <v>231.690115036091</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112338</v>
+        <v>352.5708868112334</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882116</v>
+        <v>382.2306297882112</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765381</v>
+        <v>378.6315512765377</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190457</v>
+        <v>333.5494446190453</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410832</v>
+        <v>261.6509074410828</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998361</v>
+        <v>96.87566713998341</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
         <v>333.8472147104634</v>
@@ -35732,22 +35732,22 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>260.291358752781</v>
       </c>
       <c r="O15" t="n">
-        <v>5.07585359546421</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
         <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L18" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36203,7 +36203,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36376,7 +36376,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.261899706045</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,7 +37400,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>496.3460208959114</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
